--- a/python/computacional_vision/exercicio/resultados.xlsx
+++ b/python/computacional_vision/exercicio/resultados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amorim\Documents\GitHub\self-development\python\computacional_vision\exercicio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{380A7842-6B19-430A-8C72-0F46362A56E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8DC92C2-ACE2-4D05-9360-69B9CA227B6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="990" yWindow="-120" windowWidth="27930" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="124">
   <si>
     <t>file</t>
   </si>
@@ -392,6 +392,9 @@
   </si>
   <si>
     <t>MARU 404162 809</t>
+  </si>
+  <si>
+    <t>Um dígito errado [4 → 0]</t>
   </si>
 </sst>
 </file>
@@ -4554,8 +4557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4794,12 +4797,15 @@
         <v>41</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="5" t="s">
         <v>98</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
